--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_1.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,441 +518,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_17</t>
+          <t>model_14_1_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9415391538924245</v>
+        <v>0.9424043010917899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7000297872271224</v>
+        <v>0.7795956053630635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4214203988128076</v>
+        <v>0.6970149643486278</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8688929142028803</v>
+        <v>0.9166158394161299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.841204791023455</v>
+        <v>0.8826258062978207</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3909279471088019</v>
+        <v>0.3851427038030094</v>
       </c>
       <c r="H2" t="n">
-        <v>2.005902194048058</v>
+        <v>1.473845201806114</v>
       </c>
       <c r="I2" t="n">
-        <v>1.595900902012748</v>
+        <v>0.7633871223403147</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8077845401829612</v>
+        <v>1.108493216215219</v>
       </c>
       <c r="K2" t="n">
-        <v>1.201842721097855</v>
+        <v>0.9359401692777668</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4999227693374536</v>
+        <v>0.9840815602373353</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6252423107154552</v>
+        <v>0.6205986656471389</v>
       </c>
       <c r="N2" t="n">
-        <v>1.028633883807792</v>
+        <v>1.028210138240756</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6518601703126232</v>
+        <v>0.6470188356600782</v>
       </c>
       <c r="P2" t="n">
-        <v>147.8784640289445</v>
+        <v>147.9082827082858</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.8563992443231</v>
+        <v>236.8862179236645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_16</t>
+          <t>model_14_1_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9417849124897731</v>
+        <v>0.9406399556971035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6995431728146781</v>
+        <v>0.7795241960301069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4220604166777611</v>
+        <v>0.7071763125998889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8717844366733716</v>
+        <v>0.9186361958631725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8424983090564797</v>
+        <v>0.8859152627268755</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3892845582367172</v>
+        <v>0.3969408895813406</v>
       </c>
       <c r="H3" t="n">
-        <v>2.009156186864725</v>
+        <v>1.474322716344405</v>
       </c>
       <c r="I3" t="n">
-        <v>1.594135535439354</v>
+        <v>0.7377850579216823</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7899691251346179</v>
+        <v>1.081634980787752</v>
       </c>
       <c r="K3" t="n">
-        <v>1.192052720236877</v>
+        <v>0.9097100899908903</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5092327782279726</v>
+        <v>1.063667810115716</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6239267250540862</v>
+        <v>0.6300324512129043</v>
       </c>
       <c r="N3" t="n">
-        <v>1.028513512249907</v>
+        <v>1.029074307413664</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6504885774460119</v>
+        <v>0.6568542370080064</v>
       </c>
       <c r="P3" t="n">
-        <v>147.8868893812233</v>
+        <v>147.8479358042456</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.864824596602</v>
+        <v>236.8258710196242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_15</t>
+          <t>model_14_1_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9420228186944204</v>
+        <v>0.9436299144479031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6989695087292878</v>
+        <v>0.7793150280752276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4227972754606502</v>
+        <v>0.6872080548838504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8749347748947905</v>
+        <v>0.9146467173646586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8439149231856494</v>
+        <v>0.8794350164969607</v>
       </c>
       <c r="G4" t="n">
-        <v>0.387693678350784</v>
+        <v>0.3769470216472492</v>
       </c>
       <c r="H4" t="n">
-        <v>2.012992281245211</v>
+        <v>1.475721423421813</v>
       </c>
       <c r="I4" t="n">
-        <v>1.592103051760607</v>
+        <v>0.7880961591390253</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7705590795513632</v>
+        <v>1.134670351305045</v>
       </c>
       <c r="K4" t="n">
-        <v>1.181331065655985</v>
+        <v>0.9613834822595309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5195880082285046</v>
+        <v>0.9120130275025197</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6226505266606494</v>
+        <v>0.6139601140524108</v>
       </c>
       <c r="N4" t="n">
-        <v>1.028396986761916</v>
+        <v>1.027609837821435</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6491580486448715</v>
+        <v>0.6400976671802661</v>
       </c>
       <c r="P4" t="n">
-        <v>147.8950794799118</v>
+        <v>147.9513012550869</v>
       </c>
       <c r="Q4" t="n">
-        <v>236.8730146952904</v>
+        <v>236.9292364704656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_14</t>
+          <t>model_14_1_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9422439557541982</v>
+        <v>0.9381879331994237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6982916210723016</v>
+        <v>0.7789765067371502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4236500489825791</v>
+        <v>0.7175909691871452</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8783588342298425</v>
+        <v>0.9206849956537067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8454640214944709</v>
+        <v>0.8892684656290386</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3862149338138074</v>
+        <v>0.4133375753138508</v>
       </c>
       <c r="H5" t="n">
-        <v>2.017525319128863</v>
+        <v>1.477985117168283</v>
       </c>
       <c r="I5" t="n">
-        <v>1.58975083949791</v>
+        <v>0.7115447695021042</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7494625676526531</v>
+        <v>1.054398624946452</v>
       </c>
       <c r="K5" t="n">
-        <v>1.169606703575282</v>
+        <v>0.8829716972242783</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5311067663910374</v>
+        <v>1.151539827602957</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6214619327149551</v>
+        <v>0.6429133497710643</v>
       </c>
       <c r="N5" t="n">
-        <v>1.028288674732638</v>
+        <v>1.030275298024772</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6479188537941805</v>
+        <v>0.6702835020849232</v>
       </c>
       <c r="P5" t="n">
-        <v>147.9027224822681</v>
+        <v>147.7669812924955</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.8806576976468</v>
+        <v>236.7449165078741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_13</t>
+          <t>model_14_1_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9424366263998716</v>
+        <v>0.9444366209938875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6974889087816911</v>
+        <v>0.7787813762340324</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4246419041365354</v>
+        <v>0.6778298894139676</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8820705423764603</v>
+        <v>0.9127458149008173</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8471555713878717</v>
+        <v>0.8763689047150817</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3849265443190227</v>
+        <v>0.3715525712597099</v>
       </c>
       <c r="H6" t="n">
-        <v>2.022893059912326</v>
+        <v>1.479289955741125</v>
       </c>
       <c r="I6" t="n">
-        <v>1.587014997218617</v>
+        <v>0.8117249523416137</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7265937773025374</v>
+        <v>1.159940588135402</v>
       </c>
       <c r="K6" t="n">
-        <v>1.156804195616381</v>
+        <v>0.9858326144719989</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5439158188832528</v>
+        <v>0.8467608985087415</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6204244872013215</v>
+        <v>0.6095511227614218</v>
       </c>
       <c r="N6" t="n">
-        <v>1.028194305436798</v>
+        <v>1.027214716247892</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6468372420772232</v>
+        <v>0.6355009760021496</v>
       </c>
       <c r="P6" t="n">
-        <v>147.9094055137488</v>
+        <v>147.9801298280855</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.8873407291274</v>
+        <v>236.9580650434641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_12</t>
+          <t>model_14_1_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.942585724469618</v>
+        <v>0.9449209333121816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6965365473278693</v>
+        <v>0.7780724425538924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4258054703588161</v>
+        <v>0.6689331343431431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8860810849070704</v>
+        <v>0.9109266020757691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.84900002075878</v>
+        <v>0.8734468457021294</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3839295248400949</v>
+        <v>0.3683139725572238</v>
       </c>
       <c r="H7" t="n">
-        <v>2.029261505339254</v>
+        <v>1.484030598524561</v>
       </c>
       <c r="I7" t="n">
-        <v>1.583805522878562</v>
+        <v>0.8341408061050914</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7018837913069195</v>
+        <v>1.184124858400848</v>
       </c>
       <c r="K7" t="n">
-        <v>1.142844466823888</v>
+        <v>1.009133071931681</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5581666148330203</v>
+        <v>0.7878798075785027</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6196204683837477</v>
+        <v>0.606888764566641</v>
       </c>
       <c r="N7" t="n">
-        <v>1.028121277810799</v>
+        <v>1.026977502051176</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6459989945140369</v>
+        <v>0.6327252757071757</v>
       </c>
       <c r="P7" t="n">
-        <v>147.9145925446004</v>
+        <v>147.9976390365459</v>
       </c>
       <c r="Q7" t="n">
-        <v>236.892527759979</v>
+        <v>236.9755742519245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_11</t>
+          <t>model_14_1_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9426717437293923</v>
+        <v>0.9348651789487042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.695404843731303</v>
+        <v>0.7777977506400067</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4271796222825244</v>
+        <v>0.7281288660979062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8903991326714557</v>
+        <v>0.9227354925122695</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8510079833124304</v>
+        <v>0.8926425364210611</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3833543136539013</v>
+        <v>0.4355568482882884</v>
       </c>
       <c r="H8" t="n">
-        <v>2.036829212500509</v>
+        <v>1.485867464617555</v>
       </c>
       <c r="I8" t="n">
-        <v>1.580015188255549</v>
+        <v>0.6849939704471928</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6752791863259225</v>
+        <v>1.027139708604645</v>
       </c>
       <c r="K8" t="n">
-        <v>1.127647187290736</v>
+        <v>0.8560669041975125</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5740213199565228</v>
+        <v>1.248616670002434</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6191561302724066</v>
+        <v>0.6599673084996623</v>
       </c>
       <c r="N8" t="n">
-        <v>1.028079145928461</v>
+        <v>1.031902769494512</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6455148885679836</v>
+        <v>0.6880634831431589</v>
       </c>
       <c r="P8" t="n">
-        <v>147.9175912330392</v>
+        <v>147.6622599110589</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.8955264484179</v>
+        <v>236.6401951264375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_10</t>
+          <t>model_14_1_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9426699129883874</v>
+        <v>0.9451598410110162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6940582350362559</v>
+        <v>0.7772485133986922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4288164765632753</v>
+        <v>0.6605499164201516</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8950297219093581</v>
+        <v>0.9091983024179139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8531910558992811</v>
+        <v>0.8706817807687519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3833665558274311</v>
+        <v>0.3667163956750476</v>
       </c>
       <c r="H9" t="n">
-        <v>2.045833991044852</v>
+        <v>1.48954021657923</v>
       </c>
       <c r="I9" t="n">
-        <v>1.575500239547103</v>
+        <v>0.8552627753549128</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6467489327887234</v>
+        <v>1.207100546264164</v>
       </c>
       <c r="K9" t="n">
-        <v>1.111124586167913</v>
+        <v>1.031181660809538</v>
       </c>
       <c r="L9" t="n">
-        <v>0.591654332934181</v>
+        <v>0.73464826788412</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6191660163699483</v>
+        <v>0.6055711318045532</v>
       </c>
       <c r="N9" t="n">
-        <v>1.028080042617933</v>
+        <v>1.026860486035421</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6455251955371647</v>
+        <v>0.6313515485905301</v>
       </c>
       <c r="P9" t="n">
-        <v>147.9175273653449</v>
+        <v>148.0063329869833</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.8954625807235</v>
+        <v>236.9842682023619</v>
       </c>
     </row>
     <row r="10">
@@ -962,547 +962,602 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9425490443468902</v>
+        <v>0.9452145509776851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6924545117651607</v>
+        <v>0.7763562482649737</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4307871637413793</v>
+        <v>0.6526958927824684</v>
       </c>
       <c r="E10" t="n">
-        <v>0.89997270003137</v>
+        <v>0.9075669568765692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8555621128726361</v>
+        <v>0.8680811616749819</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3841748049896712</v>
+        <v>0.3663505498760167</v>
       </c>
       <c r="H10" t="n">
-        <v>2.056558095943132</v>
+        <v>1.495506797636909</v>
       </c>
       <c r="I10" t="n">
-        <v>1.57006447679524</v>
+        <v>0.8750514110895917</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6162939708379823</v>
+        <v>1.228787344490845</v>
       </c>
       <c r="K10" t="n">
-        <v>1.093179223816611</v>
+        <v>1.051918960875906</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6112758249804181</v>
+        <v>0.6865044252143387</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6198183645146949</v>
+        <v>0.6052689896864176</v>
       </c>
       <c r="N10" t="n">
-        <v>1.028139243585197</v>
+        <v>1.026833689317052</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6462053154929799</v>
+        <v>0.631036543656905</v>
       </c>
       <c r="P10" t="n">
-        <v>147.9133152172979</v>
+        <v>148.0083292348383</v>
       </c>
       <c r="Q10" t="n">
-        <v>236.8912504326765</v>
+        <v>236.9862644502169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_8</t>
+          <t>model_14_1_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9422707120563011</v>
+        <v>0.9304481552223187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.690544270354887</v>
+        <v>0.7757986298280217</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4331916763514201</v>
+        <v>0.7386363313864699</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9052236772597535</v>
+        <v>0.9247573664183308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8581375883633766</v>
+        <v>0.8959879563268575</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3860360142984433</v>
+        <v>0.4650935062851522</v>
       </c>
       <c r="H11" t="n">
-        <v>2.069331889049485</v>
+        <v>1.499235594692403</v>
       </c>
       <c r="I11" t="n">
-        <v>1.563432089764326</v>
+        <v>0.6585198455040819</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5839413470255311</v>
+        <v>1.000261300364783</v>
       </c>
       <c r="K11" t="n">
-        <v>1.073686718394928</v>
+        <v>0.8293905729344324</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6331023505682375</v>
+        <v>1.356022411806928</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6213179655365224</v>
+        <v>0.6819776435376399</v>
       </c>
       <c r="N11" t="n">
-        <v>1.028275569605077</v>
+        <v>1.034066209687028</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6477687576349087</v>
+        <v>0.7110108437113779</v>
       </c>
       <c r="P11" t="n">
-        <v>147.9036492251566</v>
+        <v>147.5310336096503</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.8815844405352</v>
+        <v>236.5089688250289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_7</t>
+          <t>model_14_1_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9417872810335665</v>
+        <v>0.9451333679911128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6882701807558007</v>
+        <v>0.7754309462451396</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4361689734664664</v>
+        <v>0.6453749353401477</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9107705084476544</v>
+        <v>0.9060354778383879</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8609378604040346</v>
+        <v>0.8656479010214783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3892687197734654</v>
+        <v>0.3668934208810392</v>
       </c>
       <c r="H12" t="n">
-        <v>2.084538736669795</v>
+        <v>1.501694296504163</v>
       </c>
       <c r="I12" t="n">
-        <v>1.555219786493155</v>
+        <v>0.8934969578231265</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5497658907307849</v>
+        <v>1.249146536365089</v>
       </c>
       <c r="K12" t="n">
-        <v>1.05249283861197</v>
+        <v>1.071321747094108</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6573743414347142</v>
+        <v>0.6429751029813465</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6239140323581971</v>
+        <v>0.605717278010987</v>
       </c>
       <c r="N12" t="n">
-        <v>1.028512352146825</v>
+        <v>1.026873452412516</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6504753443957813</v>
+        <v>0.631503916543536</v>
       </c>
       <c r="P12" t="n">
-        <v>147.8869707550417</v>
+        <v>148.0053677588447</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.8649059704203</v>
+        <v>236.9833029742233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_6</t>
+          <t>model_14_1_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9410411497199936</v>
+        <v>0.9449544086949295</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6855673669915545</v>
+        <v>0.774499102700352</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4399200270828566</v>
+        <v>0.6385806278334074</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9165953082096282</v>
+        <v>0.9046048151250624</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8639922468953406</v>
+        <v>0.8633819012780501</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3942581033029458</v>
+        <v>0.3680901225186486</v>
       </c>
       <c r="H13" t="n">
-        <v>2.102612464756622</v>
+        <v>1.507925538578903</v>
       </c>
       <c r="I13" t="n">
-        <v>1.544873224261075</v>
+        <v>0.9106155816677503</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5138777984222971</v>
+        <v>1.268165495137459</v>
       </c>
       <c r="K13" t="n">
-        <v>1.029375691717834</v>
+        <v>1.089390797168512</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6843548584095253</v>
+        <v>0.6036398856049205</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6278997557755105</v>
+        <v>0.6067043122631062</v>
       </c>
       <c r="N13" t="n">
-        <v>1.028877804218779</v>
+        <v>1.026961105945341</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6546307483105546</v>
+        <v>0.6325329708872105</v>
       </c>
       <c r="P13" t="n">
-        <v>147.8614989992663</v>
+        <v>147.9988549452947</v>
       </c>
       <c r="Q13" t="n">
-        <v>236.839434214645</v>
+        <v>236.9767901606733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_5</t>
+          <t>model_14_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9399635507411155</v>
+        <v>0.9447071959024386</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6823650555620995</v>
+        <v>0.7735801623949791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4447417350137264</v>
+        <v>0.6322978069727286</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9226726002309673</v>
+        <v>0.9032737388276515</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8673445477166043</v>
+        <v>0.8612797647650539</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4014640126365906</v>
+        <v>0.3697432356003458</v>
       </c>
       <c r="H14" t="n">
-        <v>2.124026336030676</v>
+        <v>1.514070496632263</v>
       </c>
       <c r="I14" t="n">
-        <v>1.531573467373124</v>
+        <v>0.9264454873484121</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4764340362398962</v>
+        <v>1.285860570984157</v>
       </c>
       <c r="K14" t="n">
-        <v>1.004003777999951</v>
+        <v>1.106153204148797</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7143033976952775</v>
+        <v>0.5680944035988746</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6336118785475779</v>
+        <v>0.6080651573641971</v>
       </c>
       <c r="N14" t="n">
-        <v>1.02940560780027</v>
+        <v>1.027082189762071</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6605860479747531</v>
+        <v>0.6339517499815925</v>
       </c>
       <c r="P14" t="n">
-        <v>147.8252747638</v>
+        <v>147.9898929441619</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.8032099791786</v>
+        <v>236.9678281595406</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_4</t>
+          <t>model_14_1_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9384742644942182</v>
+        <v>0.9444148465633635</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6785903846534018</v>
+        <v>0.7726881557700895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4510807316409668</v>
+        <v>0.6265071304540055</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9289722123412548</v>
+        <v>0.9020400316897145</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871063830157588</v>
+        <v>0.8593365781286733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4114228766271256</v>
+        <v>0.3716981769768853</v>
       </c>
       <c r="H15" t="n">
-        <v>2.149267577777899</v>
+        <v>1.520035349040212</v>
       </c>
       <c r="I15" t="n">
-        <v>1.514088560517592</v>
+        <v>0.9410354088424826</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4376205027004951</v>
+        <v>1.302261239691783</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9758543611616661</v>
+        <v>1.121648147049167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7475030443388743</v>
+        <v>0.5359919241989979</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6414225414086455</v>
+        <v>0.6096705479001633</v>
       </c>
       <c r="N15" t="n">
-        <v>1.030135054125281</v>
+        <v>1.027225381275087</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6687292269241174</v>
+        <v>0.6356254853162915</v>
       </c>
       <c r="P15" t="n">
-        <v>147.7762673930691</v>
+        <v>147.979346212492</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7542026084477</v>
+        <v>236.9572814278707</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_3</t>
+          <t>model_14_1_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9364818512480317</v>
+        <v>0.9440950867758511</v>
       </c>
       <c r="C16" t="n">
-        <v>0.674175940309065</v>
+        <v>0.7718326975305334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4596113774565658</v>
+        <v>0.621185166850406</v>
       </c>
       <c r="E16" t="n">
-        <v>0.935457633302673</v>
+        <v>0.9009004114354655</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8752580856488186</v>
+        <v>0.8575458034613843</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4247461531785939</v>
+        <v>0.3738364121483393</v>
       </c>
       <c r="H16" t="n">
-        <v>2.178786987435126</v>
+        <v>1.525755802227146</v>
       </c>
       <c r="I16" t="n">
-        <v>1.490558409568733</v>
+        <v>0.9544443828923641</v>
       </c>
       <c r="J16" t="n">
-        <v>0.39766215294876</v>
+        <v>1.317411135212118</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9441101072572252</v>
+        <v>1.135927759052241</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7841818842242274</v>
+        <v>0.5070072685280281</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6517255198153544</v>
+        <v>0.6114216320578946</v>
       </c>
       <c r="N16" t="n">
-        <v>1.031110930000964</v>
+        <v>1.027381998313869</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6794708244517055</v>
+        <v>0.6374511167518612</v>
       </c>
       <c r="P16" t="n">
-        <v>147.7125271502861</v>
+        <v>147.9678739558561</v>
       </c>
       <c r="Q16" t="n">
-        <v>236.6904623656647</v>
+        <v>236.9458091712348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_2</t>
+          <t>model_14_1_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9338852863961085</v>
+        <v>0.9437612726114606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6690723578673257</v>
+        <v>0.7710201683096124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4713618412579142</v>
+        <v>0.6163060142851234</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9420854102422938</v>
+        <v>0.8998504406538332</v>
       </c>
       <c r="F17" t="n">
-        <v>0.880097032855127</v>
+        <v>0.8558997383416095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4421093942994866</v>
+        <v>0.3760686290026921</v>
       </c>
       <c r="H17" t="n">
-        <v>2.212914666722874</v>
+        <v>1.531189188868799</v>
       </c>
       <c r="I17" t="n">
-        <v>1.458147008024051</v>
+        <v>0.9667376706722803</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3568267113320381</v>
+        <v>1.331369247646348</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9074864993085905</v>
+        <v>1.149053459159314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8244723855342261</v>
+        <v>0.4808413910025706</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6649130727392014</v>
+        <v>0.6132443468982751</v>
       </c>
       <c r="N17" t="n">
-        <v>1.032382716867212</v>
+        <v>1.02754549912908</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6932197988055186</v>
+        <v>0.6393514283365367</v>
       </c>
       <c r="P17" t="n">
-        <v>147.632395858224</v>
+        <v>147.9559672566088</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.6103310736026</v>
+        <v>236.9339024719874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_1</t>
+          <t>model_14_1_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9305741814674702</v>
+        <v>0.9434234832415185</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6632634319644511</v>
+        <v>0.7702543171949437</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4878669138709281</v>
+        <v>0.6118415903892118</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9487916439255857</v>
+        <v>0.8988855917722645</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8858342611117357</v>
+        <v>0.8543901498623971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4642507682035268</v>
+        <v>0.3783274280748718</v>
       </c>
       <c r="H18" t="n">
-        <v>2.251758980983039</v>
+        <v>1.536310438799008</v>
       </c>
       <c r="I18" t="n">
-        <v>1.412620929647201</v>
+        <v>0.9779860272238849</v>
       </c>
       <c r="J18" t="n">
-        <v>0.315507877500278</v>
+        <v>1.344195765685299</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8640642445445912</v>
+        <v>1.161090896454592</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8683011243810093</v>
+        <v>0.4572303350525671</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6813594999730516</v>
+        <v>0.6150832692204136</v>
       </c>
       <c r="N18" t="n">
-        <v>1.034004482546545</v>
+        <v>1.027710946983746</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7103663844955115</v>
+        <v>0.6412686373890225</v>
       </c>
       <c r="P18" t="n">
-        <v>147.5346608480624</v>
+        <v>147.9439904929385</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.512596063441</v>
+        <v>236.9219257083171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_1_0</t>
+          <t>model_14_1_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9264221365949381</v>
+        <v>0.943089183088423</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6567717954898282</v>
+        <v>0.7695371318584658</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5112924559003003</v>
+        <v>0.6077648636956532</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9554581013038643</v>
+        <v>0.8980008876721802</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8928163269031596</v>
+        <v>0.8530086301890176</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4920155113845579</v>
+        <v>0.3805628947379314</v>
       </c>
       <c r="H19" t="n">
-        <v>2.295168583980081</v>
+        <v>1.541106260446371</v>
       </c>
       <c r="I19" t="n">
-        <v>1.348006063208594</v>
+        <v>0.9882575597848019</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2744341157335408</v>
+        <v>1.355956854199404</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8112204276326548</v>
+        <v>1.172107114893922</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9152991168378806</v>
+        <v>0.435929878858377</v>
       </c>
       <c r="M19" t="n">
-        <v>0.701438173600894</v>
+        <v>0.6168977992649443</v>
       </c>
       <c r="N19" t="n">
-        <v>1.036038137177989</v>
+        <v>1.027874685834242</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7312998488282755</v>
+        <v>0.6431604157341438</v>
       </c>
       <c r="P19" t="n">
-        <v>147.4184900715648</v>
+        <v>147.9322076407305</v>
       </c>
       <c r="Q19" t="n">
-        <v>236.3964252869435</v>
+        <v>236.9101428561091</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_14_1_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9427638913526664</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7688690491313603</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6040491462579356</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8971915381875047</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8517469586652817</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3827381220727673</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.545573732718763</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.997619510074231</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.366716192747972</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.182167665874102</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4167165309008176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6186583241764126</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.028034012398694</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6449958898358825</v>
+      </c>
+      <c r="P20" t="n">
+        <v>147.9208085560946</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>236.8987437714733</v>
       </c>
     </row>
   </sheetData>
